--- a/Salário.xlsx
+++ b/Salário.xlsx
@@ -1,51 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\030051\Documents\HTB - Departamento pessoal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676D2C30-3046-42C9-96A0-69ABE5C3FDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9D78D3-EB5B-4AB3-A0E7-88C3C433EAF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+  <si>
+    <t>160914</t>
+  </si>
+  <si>
+    <t>JEYSELLA ARIANNY ALVES SILVA</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>MOIA</t>
+  </si>
+  <si>
+    <t>No.Pessoal</t>
+  </si>
   <si>
     <t>Nome do colaborador</t>
   </si>
   <si>
-    <t>programação salário</t>
-  </si>
-  <si>
-    <t>Dia de pagamento</t>
-  </si>
-  <si>
-    <t>Salário</t>
-  </si>
-  <si>
-    <t>Danilo Freitas</t>
+    <t>Denominação da posição</t>
+  </si>
+  <si>
+    <t>Área RecursosHumanos</t>
+  </si>
+  <si>
+    <t>Sup.Funcional</t>
+  </si>
+  <si>
+    <t>Iníc.Per.Aquis.</t>
+  </si>
+  <si>
+    <t>Fim Per.Aquis.</t>
+  </si>
+  <si>
+    <t>Vencido</t>
+  </si>
+  <si>
+    <t>Iníc.Plan.Fér.</t>
+  </si>
+  <si>
+    <t>Fim Plan.Fér.</t>
+  </si>
+  <si>
+    <t>Dias Pend.</t>
+  </si>
+  <si>
+    <t>Avos</t>
+  </si>
+  <si>
+    <t>Subárea rec.humanos</t>
+  </si>
+  <si>
+    <t>Contador</t>
+  </si>
+  <si>
+    <t>Dias a Gozar</t>
+  </si>
+  <si>
+    <t>Txt.tipo presença/ausên.</t>
+  </si>
+  <si>
+    <t>ASSISTENTE / ADM DE PESSOAL</t>
+  </si>
+  <si>
+    <t>pompeudanilo0@gmail.com</t>
   </si>
   <si>
     <t>E-mail</t>
-  </si>
-  <si>
-    <t>pompeudanilo0@gmail.com</t>
   </si>
   <si>
     <t>RE</t>
@@ -58,32 +110,44 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,23 +155,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,7 +228,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -130,42 +238,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -195,12 +303,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -230,6 +355,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -291,13 +433,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -306,6 +441,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -370,11 +512,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -382,64 +544,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K12" activeCellId="1" sqref="J2 K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="8"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="2">
+        <v>45145</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45510</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="10">
+        <v>45510</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45510</v>
+      </c>
+      <c r="L2" s="3">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>5</v>
       </c>
+      <c r="N2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45463</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45463</v>
-      </c>
-      <c r="E2">
-        <v>5500</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{212B2B85-42CF-42A7-8A05-787045557E39}"/>
+    <hyperlink ref="R2" r:id="rId1" xr:uid="{60C5C3D2-E9C7-410C-A625-F0177616D662}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>